--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionGameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B10721-1AB7-481A-97C1-2601EEF0EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535F08F-04D6-4802-AD33-54BDC1038E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -232,9 +221,6 @@
     <t>AddHomeCurHp_BaseRegen_2</t>
   </si>
   <si>
-    <t>AddHomeCurHp_BaseRegen_3</t>
-  </si>
-  <si>
     <t>TowerDefense_HomeRecoveryCurHpAdd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -298,6 +284,21 @@
   </si>
   <si>
     <t>ReducePlayerTowerPrice_TowerCost_3</t>
+  </si>
+  <si>
+    <t>TowerDefense_PlayerRewardWhenKillMonsterFinalPct</t>
+  </si>
+  <si>
+    <t>AddRewardWhenGameEnd_DiamondRewards_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddRewardWhenGameEnd_DiamondRewards_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPlayerLimitTowerCount_MaxTowers_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -415,6 +416,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -692,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +710,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="65.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="52.5" customWidth="1"/>
@@ -928,7 +932,7 @@
         <v>ChgGamePlayNumeric_3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>13</v>
@@ -964,7 +968,7 @@
         <v>ChgGamePlayNumeric_5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -1201,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -1219,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -1237,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -1248,11 +1252,11 @@
         <v>39</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ref="D29:D32" si="4">B29&amp;"_"&amp;C29</f>
+        <f t="shared" ref="D29:D31" si="4">B29&amp;"_"&amp;C29</f>
         <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1270,10 +1274,10 @@
         <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_1</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -1288,28 +1292,28 @@
         <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_2</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="4"/>
-        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_3</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:D36" si="5">B33&amp;"_"&amp;C33</f>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_0</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -1320,14 +1324,14 @@
         <v>44</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D37" si="5">B34&amp;"_"&amp;C34</f>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_0</v>
+        <f t="shared" si="5"/>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -1339,13 +1343,13 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="5"/>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_1</v>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -1357,31 +1361,31 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="5"/>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_2</v>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_3</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="5"/>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_3</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37">
-        <v>200</v>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D40" si="6">B38&amp;"_"&amp;C38</f>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -1392,14 +1396,14 @@
         <v>49</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D41" si="6">B39&amp;"_"&amp;C39</f>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_0</v>
+        <f t="shared" si="6"/>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_1</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -1411,13 +1415,13 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="6"/>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_1</v>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_2</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -1425,17 +1429,17 @@
         <v>38</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="6"/>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_2</v>
+        <f t="shared" ref="D41" si="7">B41&amp;"_"&amp;C41</f>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_3</v>
       </c>
       <c r="G41" t="s">
         <v>23</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -1443,10 +1447,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43:D44" si="7">B43&amp;"_"&amp;C43</f>
+        <f t="shared" ref="D43:D44" si="8">B43&amp;"_"&amp;C43</f>
         <v>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_0</v>
       </c>
       <c r="G43" t="s">
@@ -1461,10 +1465,10 @@
         <v>38</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_1</v>
       </c>
       <c r="G44" t="s">
@@ -1479,10 +1483,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D48" si="8">B46&amp;"_"&amp;C46</f>
+        <f t="shared" ref="D46:D48" si="9">B46&amp;"_"&amp;C46</f>
         <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_0</v>
       </c>
       <c r="G46" t="s">
@@ -1497,17 +1501,17 @@
         <v>38</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_1</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -1515,17 +1519,35 @@
         <v>38</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_2</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
       </c>
       <c r="H48">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:D50" si="10">B49&amp;"_"&amp;C49</f>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -1533,35 +1555,17 @@
         <v>38</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50:D52" si="9">B50&amp;"_"&amp;C50</f>
-        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_0</v>
+        <f t="shared" si="10"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_4</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="9"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -1569,17 +1573,35 @@
         <v>38</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="9"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_2</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
+        <f t="shared" ref="D52:D54" si="11">B52&amp;"_"&amp;C52</f>
+        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_0</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="11"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_1</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -1587,35 +1609,17 @@
         <v>38</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" ref="D54:D57" si="10">B54&amp;"_"&amp;C54</f>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_2</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="10"/>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -1623,17 +1627,17 @@
         <v>38</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="10"/>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_2</v>
+        <f t="shared" ref="D56:D59" si="12">B56&amp;"_"&amp;C56</f>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_0</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
       </c>
       <c r="H56">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -1641,16 +1645,52 @@
         <v>38</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="10"/>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_3</v>
+        <f t="shared" si="12"/>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_1</v>
       </c>
       <c r="G57" t="s">
         <v>25</v>
       </c>
       <c r="H57">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="12"/>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="12"/>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59">
         <v>-30</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionGameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535F08F-04D6-4802-AD33-54BDC1038E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F172A-43D2-4741-8CEA-E32E6D49E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -205,9 +208,6 @@
     <t>AddHomeMaxHp_BaseHealth_2</t>
   </si>
   <si>
-    <t>AddHomeMaxHp_BaseHealth_3</t>
-  </si>
-  <si>
     <t>ChgGamePlayNumeric</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -299,6 +299,31 @@
   <si>
     <t>AddPlayerLimitTowerCount_MaxTowers_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonBringUp_MaxTowers</t>
+  </si>
+  <si>
+    <t>辅助参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonBringUp_BaseRegen</t>
+  </si>
+  <si>
+    <t>SeasonBringUp_StartingGold</t>
+  </si>
+  <si>
+    <t>SeasonBringUp_ExtraLives</t>
+  </si>
+  <si>
+    <t>SeasonBringUp_DiamondRewards</t>
+  </si>
+  <si>
+    <t>SeasonBringUp_TowerCost</t>
+  </si>
+  <si>
+    <t>SeasonBringUp_BaseHealth</t>
   </si>
 </sst>
 </file>
@@ -436,6 +461,353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="塔&amp;技能"/>
+      <sheetName val="怪物"/>
+      <sheetName val="难度设计"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="养成"/>
+      <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
+      <sheetName val="参考"/>
+      <sheetName val="工具"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>1级数值</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>2级数值</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>3级数值</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>4级数值</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>5级数值</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>升2级消耗</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>升3级消耗</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>升4级消耗</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>升5级消耗</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>升6级消耗</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>SeasonBringUp_Damage</v>
+          </cell>
+          <cell r="C2">
+            <v>10</v>
+          </cell>
+          <cell r="D2">
+            <v>20</v>
+          </cell>
+          <cell r="E2">
+            <v>30</v>
+          </cell>
+          <cell r="H2">
+            <v>50</v>
+          </cell>
+          <cell r="I2">
+            <v>120</v>
+          </cell>
+          <cell r="J2">
+            <v>240</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v/>
+          </cell>
+          <cell r="L2" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>SeasonBringUp_AttackRange</v>
+          </cell>
+          <cell r="C3">
+            <v>5</v>
+          </cell>
+          <cell r="D3">
+            <v>10</v>
+          </cell>
+          <cell r="E3">
+            <v>15</v>
+          </cell>
+          <cell r="H3">
+            <v>50</v>
+          </cell>
+          <cell r="I3">
+            <v>120</v>
+          </cell>
+          <cell r="J3">
+            <v>240</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v/>
+          </cell>
+          <cell r="L3" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>SeasonBringUp_AttackInterval</v>
+          </cell>
+          <cell r="C4">
+            <v>-10</v>
+          </cell>
+          <cell r="D4">
+            <v>-20</v>
+          </cell>
+          <cell r="E4">
+            <v>-30</v>
+          </cell>
+          <cell r="H4">
+            <v>50</v>
+          </cell>
+          <cell r="I4">
+            <v>120</v>
+          </cell>
+          <cell r="J4">
+            <v>240</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v/>
+          </cell>
+          <cell r="L4" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>SeasonBringUp_StartingGold</v>
+          </cell>
+          <cell r="C5">
+            <v>10</v>
+          </cell>
+          <cell r="D5">
+            <v>20</v>
+          </cell>
+          <cell r="E5">
+            <v>30</v>
+          </cell>
+          <cell r="H5">
+            <v>50</v>
+          </cell>
+          <cell r="I5">
+            <v>120</v>
+          </cell>
+          <cell r="J5">
+            <v>240</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v/>
+          </cell>
+          <cell r="L5" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>SeasonBringUp_TowerCost</v>
+          </cell>
+          <cell r="C6">
+            <v>-10</v>
+          </cell>
+          <cell r="D6">
+            <v>-20</v>
+          </cell>
+          <cell r="E6">
+            <v>-30</v>
+          </cell>
+          <cell r="H6">
+            <v>50</v>
+          </cell>
+          <cell r="I6">
+            <v>120</v>
+          </cell>
+          <cell r="J6">
+            <v>240</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v/>
+          </cell>
+          <cell r="L6" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>SeasonBringUp_MaxTowers</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>2</v>
+          </cell>
+          <cell r="H7">
+            <v>50</v>
+          </cell>
+          <cell r="I7">
+            <v>120</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v/>
+          </cell>
+          <cell r="K7" t="str">
+            <v/>
+          </cell>
+          <cell r="L7" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>SeasonBringUp_BaseHealth</v>
+          </cell>
+          <cell r="C8">
+            <v>3</v>
+          </cell>
+          <cell r="D8">
+            <v>5</v>
+          </cell>
+          <cell r="H8">
+            <v>50</v>
+          </cell>
+          <cell r="I8">
+            <v>120</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v/>
+          </cell>
+          <cell r="K8" t="str">
+            <v/>
+          </cell>
+          <cell r="L8" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>SeasonBringUp_BaseRegen</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>2</v>
+          </cell>
+          <cell r="H9">
+            <v>50</v>
+          </cell>
+          <cell r="I9">
+            <v>120</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v/>
+          </cell>
+          <cell r="K9" t="str">
+            <v/>
+          </cell>
+          <cell r="L9" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>SeasonBringUp_ExtraLives</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="H10">
+            <v>50</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v/>
+          </cell>
+          <cell r="J10" t="str">
+            <v/>
+          </cell>
+          <cell r="K10" t="str">
+            <v/>
+          </cell>
+          <cell r="L10" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>SeasonBringUp_DiamondRewards</v>
+          </cell>
+          <cell r="C11">
+            <v>5</v>
+          </cell>
+          <cell r="D11">
+            <v>10</v>
+          </cell>
+          <cell r="E11">
+            <v>15</v>
+          </cell>
+          <cell r="H11">
+            <v>50</v>
+          </cell>
+          <cell r="I11">
+            <v>120</v>
+          </cell>
+          <cell r="J11">
+            <v>240</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v/>
+          </cell>
+          <cell r="L11" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,13 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,6 +1087,7 @@
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="52.5" customWidth="1"/>
     <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -868,8 +1241,10 @@
       <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="I5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -886,7 +1261,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -904,7 +1279,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -922,7 +1297,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -932,7 +1307,7 @@
         <v>ChgGamePlayNumeric_3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>13</v>
@@ -940,7 +1315,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -958,7 +1333,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -968,7 +1343,7 @@
         <v>ChgGamePlayNumeric_5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -976,7 +1351,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -994,7 +1369,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1012,7 +1387,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1030,7 +1405,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1048,7 +1423,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1066,7 +1441,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1082,9 +1457,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1100,9 +1475,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1118,9 +1493,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -1136,9 +1511,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1154,9 +1529,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -1172,9 +1547,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>33</v>
@@ -1187,30 +1562,46 @@
         <v>19</v>
       </c>
       <c r="H24">
+        <f>IF(J24="0",0,VLOOKUP(I24,[1]养成!$B:$L,1+J24,FALSE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="str">
+        <f>RIGHT(D24,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:D27" si="3">B25&amp;"_"&amp;C25</f>
+        <f t="shared" ref="D25:D26" si="3">B25&amp;"_"&amp;C25</f>
         <v>ChgGamePlayNumeric_AddHomeMaxHp_BaseHealth_1</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J25="0",0,VLOOKUP(I25,[1]养成!$B:$L,1+J25,FALSE))</f>
+        <v>3</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ref="J25:J26" si="4">RIGHT(D25,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -1223,475 +1614,641 @@
         <v>19</v>
       </c>
       <c r="H26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+        <f>IF(J26="0",0,VLOOKUP(I26,[1]养成!$B:$L,1+J26,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="3"/>
-        <v>ChgGamePlayNumeric_AddHomeMaxHp_BaseHealth_3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D30" si="5">B28&amp;"_"&amp;C28</f>
+        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <f>IF(J28="0",0,VLOOKUP(I28,[1]养成!$B:$L,1+J28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="str">
+        <f>RIGHT(D28,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ref="D29:D31" si="4">B29&amp;"_"&amp;C29</f>
-        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_0</v>
+        <f t="shared" si="5"/>
+        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_1</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J29="0",0,VLOOKUP(I29,[1]养成!$B:$L,1+J29,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" ref="J29:J30" si="6">RIGHT(D29,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="4"/>
-        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_1</v>
+        <f t="shared" si="5"/>
+        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_2</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30">
+        <f>IF(J30="0",0,VLOOKUP(I30,[1]养成!$B:$L,1+J30,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="4"/>
-        <v>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_2</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D32" t="str">
+        <f t="shared" ref="D32:D35" si="7">B32&amp;"_"&amp;C32</f>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_0</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <f>IF(J32="0",0,VLOOKUP(I32,[1]养成!$B:$L,1+J32,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" t="str">
+        <f>RIGHT(D32,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ref="D33:D36" si="5">B33&amp;"_"&amp;C33</f>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J33="0",0,VLOOKUP(I33,[1]养成!$B:$L,1+J33,FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33:J34" si="8">RIGHT(D33,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="5"/>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_1</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_2</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J34="0",0,VLOOKUP(I34,[1]养成!$B:$L,1+J34,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="5"/>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_2</v>
-      </c>
-      <c r="G35" s="6" t="s">
+        <f t="shared" si="7"/>
+        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_3</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35">
+        <f>IF(J35="0",0,VLOOKUP(I35,[1]养成!$B:$L,1+J35,FALSE))</f>
+        <v>30</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="str">
+        <f>RIGHT(D35,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="5"/>
-        <v>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_3</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="str">
+        <f t="shared" ref="D37:D39" si="9">B37&amp;"_"&amp;C37</f>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <f>IF(J37="0",0,VLOOKUP(I37,[1]养成!$B:$L,1+J37,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" t="str">
+        <f>RIGHT(D37,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" ref="D38:D40" si="6">B38&amp;"_"&amp;C38</f>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_0</v>
+        <f t="shared" si="9"/>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_1</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J38="0",0,VLOOKUP(I38,[1]养成!$B:$L,1+J38,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ref="J38:J39" si="10">RIGHT(D38,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="6"/>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_1</v>
+        <f t="shared" si="9"/>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_2</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
       </c>
       <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J39="0",0,VLOOKUP(I39,[1]养成!$B:$L,1+J39,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="6"/>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_2</v>
+        <f t="shared" ref="D40" si="11">B40&amp;"_"&amp;C40</f>
+        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_3</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
       </c>
       <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
+        <f>IF(J40="0",0,VLOOKUP(I40,[1]养成!$B:$L,1+J40,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" ref="D41" si="7">B41&amp;"_"&amp;C41</f>
-        <v>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41">
+      <c r="J40" t="str">
+        <f>RIGHT(D40,1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42:D43" si="12">B42&amp;"_"&amp;C42</f>
+        <v>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42">
+        <f>IF(J42="0",0,VLOOKUP(I42,[1]养成!$B:$L,1+J42,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42" si="13">RIGHT(D42,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43:D44" si="8">B43&amp;"_"&amp;C43</f>
-        <v>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_0</v>
+        <f t="shared" si="12"/>
+        <v>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_1</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
       </c>
       <c r="H43">
+        <f>IF(J43="0",0,VLOOKUP(I43,[1]养成!$B:$L,1+J43,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" t="str">
+        <f>RIGHT(D43,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" ref="D45:D47" si="14">B45&amp;"_"&amp;C45</f>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45">
+        <f>IF(J45="0",0,VLOOKUP(I45,[1]养成!$B:$L,1+J45,FALSE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="8"/>
-        <v>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" t="str">
+        <f>RIGHT(D45,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D48" si="9">B46&amp;"_"&amp;C46</f>
-        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_0</v>
+        <f t="shared" si="14"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_1</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J46="0",0,VLOOKUP(I46,[1]养成!$B:$L,1+J46,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" ref="J46:J47" si="15">RIGHT(D46,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="9"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_1</v>
+        <f t="shared" si="14"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_2</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
       </c>
       <c r="H47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J47="0",0,VLOOKUP(I47,[1]养成!$B:$L,1+J47,FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="9"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_2</v>
+        <f t="shared" ref="D48:D49" si="16">B48&amp;"_"&amp;C48</f>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_3</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
       </c>
       <c r="H48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J48="0",0,VLOOKUP(I48,[1]养成!$B:$L,1+J48,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" t="str">
+        <f>RIGHT(D48,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" ref="D49:D50" si="10">B49&amp;"_"&amp;C49</f>
-        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_3</v>
+        <f t="shared" si="16"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_4</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
       </c>
       <c r="H49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="10"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J49="0",0,VLOOKUP(I49,[1]养成!$B:$L,1+J49,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" t="str">
+        <f>RIGHT(D49,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ref="D51:D53" si="17">B51&amp;"_"&amp;C51</f>
+        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_0</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52:D54" si="11">B52&amp;"_"&amp;C52</f>
-        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_0</v>
+        <f t="shared" si="17"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_1</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="11"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_1</v>
+        <f t="shared" si="17"/>
+        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_2</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="11"/>
-        <v>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_2</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D55" t="str">
+        <f t="shared" ref="D55:D58" si="18">B55&amp;"_"&amp;C55</f>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <f>IF(J55="0",0,VLOOKUP(I55,[1]养成!$B:$L,1+J55,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" ref="J55:J56" si="19">RIGHT(D55,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" ref="D56:D59" si="12">B56&amp;"_"&amp;C56</f>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_1</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J56="0",0,VLOOKUP(I56,[1]养成!$B:$L,1+J56,FALSE))</f>
+        <v>-10</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="12"/>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_2</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H57">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+        <f>IF(J57="0",0,VLOOKUP(I57,[1]养成!$B:$L,1+J57,FALSE))</f>
+        <v>-20</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" t="str">
+        <f>RIGHT(D57,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="12"/>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_3</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H58">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="12"/>
-        <v>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59">
+        <f>IF(J58="0",0,VLOOKUP(I58,[1]养成!$B:$L,1+J58,FALSE))</f>
         <v>-30</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" t="str">
+        <f>RIGHT(D58,1)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
